--- a/Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/Financials/Yearly/YPF_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41563B14-69AA-424D-A5C1-F90C146389B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YPF" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6618600</v>
+        <v>9997700</v>
       </c>
       <c r="E8" s="3">
-        <v>5500400</v>
+        <v>5799500</v>
       </c>
       <c r="F8" s="3">
-        <v>4087600</v>
+        <v>4819700</v>
       </c>
       <c r="G8" s="3">
-        <v>3716000</v>
+        <v>3581800</v>
       </c>
       <c r="H8" s="3">
-        <v>2359200</v>
+        <v>3256100</v>
       </c>
       <c r="I8" s="3">
-        <v>1758600</v>
+        <v>2067200</v>
       </c>
       <c r="J8" s="3">
+        <v>1541000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1471600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5585200</v>
+        <v>8318000</v>
       </c>
       <c r="E9" s="3">
-        <v>4668700</v>
+        <v>4894000</v>
       </c>
       <c r="F9" s="3">
-        <v>3129500</v>
+        <v>4090900</v>
       </c>
       <c r="G9" s="3">
-        <v>2740300</v>
+        <v>2742200</v>
       </c>
       <c r="H9" s="3">
-        <v>1795600</v>
+        <v>2397000</v>
       </c>
       <c r="I9" s="3">
-        <v>1316000</v>
+        <v>1573000</v>
       </c>
       <c r="J9" s="3">
+        <v>1153100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1077100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1033400</v>
+        <v>1679700</v>
       </c>
       <c r="E10" s="3">
-        <v>831700</v>
+        <v>905500</v>
       </c>
       <c r="F10" s="3">
-        <v>958200</v>
+        <v>728800</v>
       </c>
       <c r="G10" s="3">
-        <v>975800</v>
+        <v>839600</v>
       </c>
       <c r="H10" s="3">
-        <v>563600</v>
+        <v>859100</v>
       </c>
       <c r="I10" s="3">
-        <v>442600</v>
+        <v>494200</v>
       </c>
       <c r="J10" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K10" s="3">
         <v>394500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>49300</v>
+        <v>97500</v>
       </c>
       <c r="E12" s="3">
-        <v>70500</v>
+        <v>43200</v>
       </c>
       <c r="F12" s="3">
-        <v>56400</v>
+        <v>61800</v>
       </c>
       <c r="G12" s="3">
-        <v>41900</v>
+        <v>49400</v>
       </c>
       <c r="H12" s="3">
-        <v>17300</v>
+        <v>36700</v>
       </c>
       <c r="I12" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="J12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K12" s="3">
         <v>15000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,23 +903,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-164200</v>
+        <v>-283300</v>
       </c>
       <c r="E14" s="3">
-        <v>882000</v>
+        <v>-143900</v>
       </c>
       <c r="F14" s="3">
-        <v>97500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>772800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>85400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -879,36 +933,42 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>53800</v>
+        <v>94500</v>
       </c>
       <c r="E15" s="3">
-        <v>49600</v>
+        <v>47100</v>
       </c>
       <c r="F15" s="3">
-        <v>29200</v>
+        <v>43400</v>
       </c>
       <c r="G15" s="3">
-        <v>23200</v>
+        <v>25600</v>
       </c>
       <c r="H15" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>24400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>13100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6197900</v>
+        <v>8993400</v>
       </c>
       <c r="E17" s="3">
-        <v>6135200</v>
+        <v>5430800</v>
       </c>
       <c r="F17" s="3">
-        <v>3653400</v>
+        <v>5375900</v>
       </c>
       <c r="G17" s="3">
-        <v>3199200</v>
+        <v>3201200</v>
       </c>
       <c r="H17" s="3">
-        <v>2067000</v>
+        <v>2803300</v>
       </c>
       <c r="I17" s="3">
-        <v>1551700</v>
+        <v>1811200</v>
       </c>
       <c r="J17" s="3">
+        <v>1359700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1283400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>420800</v>
+        <v>1004300</v>
       </c>
       <c r="E18" s="3">
-        <v>-634800</v>
+        <v>368700</v>
       </c>
       <c r="F18" s="3">
-        <v>434300</v>
+        <v>-556200</v>
       </c>
       <c r="G18" s="3">
-        <v>516800</v>
+        <v>380500</v>
       </c>
       <c r="H18" s="3">
-        <v>292200</v>
+        <v>452900</v>
       </c>
       <c r="I18" s="3">
-        <v>206900</v>
+        <v>256000</v>
       </c>
       <c r="J18" s="3">
+        <v>181300</v>
+      </c>
+      <c r="K18" s="3">
         <v>188200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>288400</v>
+        <v>1722400</v>
       </c>
       <c r="E20" s="3">
-        <v>328600</v>
+        <v>252700</v>
       </c>
       <c r="F20" s="3">
-        <v>604200</v>
+        <v>287900</v>
       </c>
       <c r="G20" s="3">
-        <v>253100</v>
+        <v>529500</v>
       </c>
       <c r="H20" s="3">
-        <v>183800</v>
+        <v>221700</v>
       </c>
       <c r="I20" s="3">
-        <v>58100</v>
+        <v>161100</v>
       </c>
       <c r="J20" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K20" s="3">
         <v>37800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2166800</v>
+        <v>4764000</v>
       </c>
       <c r="E21" s="3">
-        <v>913300</v>
+        <v>1861100</v>
       </c>
       <c r="F21" s="3">
-        <v>1762900</v>
+        <v>768900</v>
       </c>
       <c r="G21" s="3">
-        <v>1317200</v>
+        <v>1526000</v>
       </c>
       <c r="H21" s="3">
-        <v>782600</v>
+        <v>1140100</v>
       </c>
       <c r="I21" s="3">
-        <v>487100</v>
+        <v>677900</v>
       </c>
       <c r="J21" s="3">
+        <v>421100</v>
+      </c>
+      <c r="K21" s="3">
         <v>400300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>481300</v>
+        <v>658800</v>
       </c>
       <c r="E22" s="3">
-        <v>474100</v>
+        <v>421800</v>
       </c>
       <c r="F22" s="3">
-        <v>277600</v>
+        <v>415400</v>
       </c>
       <c r="G22" s="3">
-        <v>192100</v>
+        <v>243300</v>
       </c>
       <c r="H22" s="3">
-        <v>100300</v>
+        <v>168300</v>
       </c>
       <c r="I22" s="3">
-        <v>40800</v>
+        <v>87900</v>
       </c>
       <c r="J22" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K22" s="3">
         <v>27400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>227800</v>
+        <v>2067900</v>
       </c>
       <c r="E23" s="3">
-        <v>-780300</v>
+        <v>199600</v>
       </c>
       <c r="F23" s="3">
-        <v>760900</v>
+        <v>-683700</v>
       </c>
       <c r="G23" s="3">
-        <v>577800</v>
+        <v>666700</v>
       </c>
       <c r="H23" s="3">
-        <v>375600</v>
+        <v>506300</v>
       </c>
       <c r="I23" s="3">
-        <v>224200</v>
+        <v>329100</v>
       </c>
       <c r="J23" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K23" s="3">
         <v>198600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-103900</v>
+        <v>1182300</v>
       </c>
       <c r="E24" s="3">
-        <v>-37300</v>
+        <v>-91000</v>
       </c>
       <c r="F24" s="3">
-        <v>645000</v>
+        <v>-32700</v>
       </c>
       <c r="G24" s="3">
-        <v>346200</v>
+        <v>565200</v>
       </c>
       <c r="H24" s="3">
-        <v>242700</v>
+        <v>303300</v>
       </c>
       <c r="I24" s="3">
-        <v>122100</v>
+        <v>212600</v>
       </c>
       <c r="J24" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K24" s="3">
         <v>82200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>331800</v>
+        <v>885600</v>
       </c>
       <c r="E26" s="3">
-        <v>-743000</v>
+        <v>290700</v>
       </c>
       <c r="F26" s="3">
-        <v>115900</v>
+        <v>-651000</v>
       </c>
       <c r="G26" s="3">
-        <v>231700</v>
+        <v>101500</v>
       </c>
       <c r="H26" s="3">
-        <v>133000</v>
+        <v>203000</v>
       </c>
       <c r="I26" s="3">
-        <v>102200</v>
+        <v>116500</v>
       </c>
       <c r="J26" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K26" s="3">
         <v>116400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>323100</v>
+        <v>885800</v>
       </c>
       <c r="E27" s="3">
-        <v>-739200</v>
+        <v>283100</v>
       </c>
       <c r="F27" s="3">
-        <v>119900</v>
+        <v>-647800</v>
       </c>
       <c r="G27" s="3">
-        <v>235700</v>
+        <v>105000</v>
       </c>
       <c r="H27" s="3">
-        <v>134200</v>
+        <v>206500</v>
       </c>
       <c r="I27" s="3">
-        <v>102200</v>
+        <v>117600</v>
       </c>
       <c r="J27" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K27" s="3">
         <v>101000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-288400</v>
+        <v>-1722400</v>
       </c>
       <c r="E32" s="3">
-        <v>-328600</v>
+        <v>-252700</v>
       </c>
       <c r="F32" s="3">
-        <v>-604200</v>
+        <v>-287900</v>
       </c>
       <c r="G32" s="3">
-        <v>-253100</v>
+        <v>-529500</v>
       </c>
       <c r="H32" s="3">
-        <v>-183800</v>
+        <v>-221700</v>
       </c>
       <c r="I32" s="3">
-        <v>-58100</v>
+        <v>-161100</v>
       </c>
       <c r="J32" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-37800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>323100</v>
+        <v>885800</v>
       </c>
       <c r="E33" s="3">
-        <v>-739200</v>
+        <v>283100</v>
       </c>
       <c r="F33" s="3">
-        <v>119900</v>
+        <v>-647800</v>
       </c>
       <c r="G33" s="3">
-        <v>235700</v>
+        <v>105000</v>
       </c>
       <c r="H33" s="3">
-        <v>134200</v>
+        <v>206500</v>
       </c>
       <c r="I33" s="3">
-        <v>102200</v>
+        <v>117600</v>
       </c>
       <c r="J33" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K33" s="3">
         <v>101000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>323100</v>
+        <v>885800</v>
       </c>
       <c r="E35" s="3">
-        <v>-739200</v>
+        <v>283100</v>
       </c>
       <c r="F35" s="3">
-        <v>119900</v>
+        <v>-647800</v>
       </c>
       <c r="G35" s="3">
-        <v>235700</v>
+        <v>105000</v>
       </c>
       <c r="H35" s="3">
-        <v>134200</v>
+        <v>206500</v>
       </c>
       <c r="I35" s="3">
-        <v>102200</v>
+        <v>117600</v>
       </c>
       <c r="J35" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K35" s="3">
         <v>101000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>253600</v>
+        <v>877100</v>
       </c>
       <c r="E41" s="3">
-        <v>208100</v>
+        <v>222200</v>
       </c>
       <c r="F41" s="3">
-        <v>382600</v>
+        <v>182400</v>
       </c>
       <c r="G41" s="3">
-        <v>215300</v>
+        <v>335200</v>
       </c>
       <c r="H41" s="3">
-        <v>118700</v>
+        <v>188600</v>
       </c>
       <c r="I41" s="3">
-        <v>101300</v>
+        <v>104000</v>
       </c>
       <c r="J41" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>837400</v>
+        <v>429700</v>
       </c>
       <c r="E42" s="3">
-        <v>271100</v>
+        <v>733800</v>
       </c>
       <c r="F42" s="3">
-        <v>41300</v>
+        <v>237600</v>
       </c>
       <c r="G42" s="3">
-        <v>40200</v>
+        <v>36200</v>
       </c>
       <c r="H42" s="3">
-        <v>161800</v>
+        <v>35200</v>
       </c>
       <c r="I42" s="3">
-        <v>23000</v>
+        <v>141800</v>
       </c>
       <c r="J42" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K42" s="3">
         <v>5900</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1371800</v>
+        <v>2117500</v>
       </c>
       <c r="E43" s="3">
-        <v>1214700</v>
+        <v>1202000</v>
       </c>
       <c r="F43" s="3">
-        <v>1069200</v>
+        <v>1064400</v>
       </c>
       <c r="G43" s="3">
-        <v>494500</v>
+        <v>936900</v>
       </c>
       <c r="H43" s="3">
-        <v>351600</v>
+        <v>433300</v>
       </c>
       <c r="I43" s="3">
-        <v>174900</v>
+        <v>308100</v>
       </c>
       <c r="J43" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K43" s="3">
         <v>157300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>714500</v>
+        <v>1232900</v>
       </c>
       <c r="E44" s="3">
-        <v>571200</v>
+        <v>626100</v>
       </c>
       <c r="F44" s="3">
-        <v>504200</v>
+        <v>500600</v>
       </c>
       <c r="G44" s="3">
-        <v>340400</v>
+        <v>441800</v>
       </c>
       <c r="H44" s="3">
-        <v>258700</v>
+        <v>298200</v>
       </c>
       <c r="I44" s="3">
-        <v>181200</v>
+        <v>226700</v>
       </c>
       <c r="J44" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K44" s="3">
         <v>157200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24500</v>
+        <v>123800</v>
       </c>
       <c r="E45" s="3">
-        <v>18400</v>
+        <v>21400</v>
       </c>
       <c r="F45" s="3">
-        <v>17900</v>
+        <v>16100</v>
       </c>
       <c r="G45" s="3">
-        <v>11800</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
+        <v>10300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3201800</v>
+        <v>4781000</v>
       </c>
       <c r="E46" s="3">
-        <v>2283600</v>
+        <v>2805500</v>
       </c>
       <c r="F46" s="3">
-        <v>2015200</v>
+        <v>2001000</v>
       </c>
       <c r="G46" s="3">
-        <v>1102200</v>
+        <v>1765800</v>
       </c>
       <c r="H46" s="3">
-        <v>903600</v>
+        <v>965800</v>
       </c>
       <c r="I46" s="3">
-        <v>480400</v>
+        <v>791800</v>
       </c>
       <c r="J46" s="3">
+        <v>420900</v>
+      </c>
+      <c r="K46" s="3">
         <v>346100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>246300</v>
+        <v>1504200</v>
       </c>
       <c r="E47" s="3">
-        <v>446200</v>
+        <v>215800</v>
       </c>
       <c r="F47" s="3">
-        <v>178700</v>
+        <v>391000</v>
       </c>
       <c r="G47" s="3">
-        <v>157400</v>
+        <v>156600</v>
       </c>
       <c r="H47" s="3">
-        <v>133600</v>
+        <v>137900</v>
       </c>
       <c r="I47" s="3">
-        <v>80900</v>
+        <v>117100</v>
       </c>
       <c r="J47" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K47" s="3">
         <v>76400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9279300</v>
+        <v>16037100</v>
       </c>
       <c r="E48" s="3">
-        <v>8063800</v>
+        <v>8130900</v>
       </c>
       <c r="F48" s="3">
-        <v>7092300</v>
+        <v>7065800</v>
       </c>
       <c r="G48" s="3">
-        <v>4108400</v>
+        <v>6214600</v>
       </c>
       <c r="H48" s="3">
-        <v>2447700</v>
+        <v>3600000</v>
       </c>
       <c r="I48" s="3">
-        <v>1491500</v>
+        <v>2144800</v>
       </c>
       <c r="J48" s="3">
+        <v>1306900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1139400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>261200</v>
+        <v>468000</v>
       </c>
       <c r="E49" s="3">
-        <v>212400</v>
+        <v>228800</v>
       </c>
       <c r="F49" s="3">
-        <v>190600</v>
+        <v>186100</v>
       </c>
       <c r="G49" s="3">
-        <v>115000</v>
+        <v>167000</v>
       </c>
       <c r="H49" s="3">
-        <v>64000</v>
+        <v>100800</v>
       </c>
       <c r="I49" s="3">
-        <v>39100</v>
+        <v>56100</v>
       </c>
       <c r="J49" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K49" s="3">
         <v>34000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>251100</v>
+        <v>12400</v>
       </c>
       <c r="E52" s="3">
-        <v>19400</v>
+        <v>220000</v>
       </c>
       <c r="F52" s="3">
-        <v>38500</v>
+        <v>17000</v>
       </c>
       <c r="G52" s="3">
-        <v>21200</v>
+        <v>33700</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>18600</v>
       </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>26700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13239700</v>
+        <v>22802700</v>
       </c>
       <c r="E54" s="3">
-        <v>11025400</v>
+        <v>11601200</v>
       </c>
       <c r="F54" s="3">
-        <v>9515200</v>
+        <v>9660900</v>
       </c>
       <c r="G54" s="3">
-        <v>5459900</v>
+        <v>8337600</v>
       </c>
       <c r="H54" s="3">
-        <v>3549900</v>
+        <v>4784200</v>
       </c>
       <c r="I54" s="3">
-        <v>2093100</v>
+        <v>3110500</v>
       </c>
       <c r="J54" s="3">
+        <v>1834000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1596700</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1169100</v>
+        <v>1868500</v>
       </c>
       <c r="E57" s="3">
-        <v>1064700</v>
+        <v>1024400</v>
       </c>
       <c r="F57" s="3">
-        <v>1013300</v>
+        <v>932900</v>
       </c>
       <c r="G57" s="3">
-        <v>746700</v>
+        <v>887900</v>
       </c>
       <c r="H57" s="3">
-        <v>531800</v>
+        <v>654300</v>
       </c>
       <c r="I57" s="3">
-        <v>336600</v>
+        <v>466000</v>
       </c>
       <c r="J57" s="3">
+        <v>294900</v>
+      </c>
+      <c r="K57" s="3">
         <v>293100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1029800</v>
+        <v>1487100</v>
       </c>
       <c r="E58" s="3">
-        <v>701000</v>
+        <v>902400</v>
       </c>
       <c r="F58" s="3">
-        <v>728200</v>
+        <v>614300</v>
       </c>
       <c r="G58" s="3">
-        <v>347500</v>
+        <v>638100</v>
       </c>
       <c r="H58" s="3">
-        <v>230800</v>
+        <v>304500</v>
       </c>
       <c r="I58" s="3">
-        <v>131000</v>
+        <v>202200</v>
       </c>
       <c r="J58" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K58" s="3">
         <v>203200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490700</v>
+        <v>750000</v>
       </c>
       <c r="E59" s="3">
-        <v>393300</v>
+        <v>430000</v>
       </c>
       <c r="F59" s="3">
-        <v>347400</v>
+        <v>344600</v>
       </c>
       <c r="G59" s="3">
-        <v>334000</v>
+        <v>304400</v>
       </c>
       <c r="H59" s="3">
-        <v>96400</v>
+        <v>292700</v>
       </c>
       <c r="I59" s="3">
-        <v>80400</v>
+        <v>84500</v>
       </c>
       <c r="J59" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K59" s="3">
         <v>63100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2689600</v>
+        <v>4105500</v>
       </c>
       <c r="E60" s="3">
-        <v>2159000</v>
+        <v>2356700</v>
       </c>
       <c r="F60" s="3">
-        <v>2088900</v>
+        <v>1891800</v>
       </c>
       <c r="G60" s="3">
-        <v>1397100</v>
+        <v>1830400</v>
       </c>
       <c r="H60" s="3">
-        <v>858900</v>
+        <v>1224200</v>
       </c>
       <c r="I60" s="3">
-        <v>547900</v>
+        <v>752600</v>
       </c>
       <c r="J60" s="3">
+        <v>480100</v>
+      </c>
+      <c r="K60" s="3">
         <v>549000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3972200</v>
+        <v>6199600</v>
       </c>
       <c r="E61" s="3">
-        <v>3339700</v>
+        <v>3480600</v>
       </c>
       <c r="F61" s="3">
-        <v>2040300</v>
+        <v>2926400</v>
       </c>
       <c r="G61" s="3">
-        <v>943300</v>
+        <v>1787800</v>
       </c>
       <c r="H61" s="3">
-        <v>604100</v>
+        <v>826500</v>
       </c>
       <c r="I61" s="3">
-        <v>316800</v>
+        <v>529400</v>
       </c>
       <c r="J61" s="3">
+        <v>277600</v>
+      </c>
+      <c r="K61" s="3">
         <v>116100</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2474800</v>
+        <v>4185100</v>
       </c>
       <c r="E62" s="3">
-        <v>2420200</v>
+        <v>2168500</v>
       </c>
       <c r="F62" s="3">
-        <v>2232300</v>
+        <v>2120700</v>
       </c>
       <c r="G62" s="3">
-        <v>1909600</v>
+        <v>1956000</v>
       </c>
       <c r="H62" s="3">
-        <v>823900</v>
+        <v>1673300</v>
       </c>
       <c r="I62" s="3">
-        <v>410000</v>
+        <v>721900</v>
       </c>
       <c r="J62" s="3">
+        <v>359200</v>
+      </c>
+      <c r="K62" s="3">
         <v>384500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9252600</v>
+        <v>14562700</v>
       </c>
       <c r="E66" s="3">
-        <v>7916400</v>
+        <v>8107500</v>
       </c>
       <c r="F66" s="3">
-        <v>6362800</v>
+        <v>6936700</v>
       </c>
       <c r="G66" s="3">
-        <v>3558500</v>
+        <v>5575300</v>
       </c>
       <c r="H66" s="3">
-        <v>2292800</v>
+        <v>3118100</v>
       </c>
       <c r="I66" s="3">
-        <v>1274700</v>
+        <v>2009100</v>
       </c>
       <c r="J66" s="3">
+        <v>1116900</v>
+      </c>
+      <c r="K66" s="3">
         <v>983600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>378200</v>
+        <v>930000</v>
       </c>
       <c r="E72" s="3">
-        <v>-578100</v>
+        <v>331400</v>
       </c>
       <c r="F72" s="3">
-        <v>279700</v>
+        <v>-506500</v>
       </c>
       <c r="G72" s="3">
-        <v>393000</v>
+        <v>245100</v>
       </c>
       <c r="H72" s="3">
-        <v>282500</v>
+        <v>344400</v>
       </c>
       <c r="I72" s="3">
-        <v>229000</v>
+        <v>247500</v>
       </c>
       <c r="J72" s="3">
+        <v>200700</v>
+      </c>
+      <c r="K72" s="3">
         <v>284900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3987100</v>
+        <v>8240000</v>
       </c>
       <c r="E76" s="3">
-        <v>3109000</v>
+        <v>3493600</v>
       </c>
       <c r="F76" s="3">
-        <v>3152400</v>
+        <v>2724200</v>
       </c>
       <c r="G76" s="3">
-        <v>1901500</v>
+        <v>2762300</v>
       </c>
       <c r="H76" s="3">
-        <v>1257100</v>
+        <v>1666100</v>
       </c>
       <c r="I76" s="3">
-        <v>818400</v>
+        <v>1101500</v>
       </c>
       <c r="J76" s="3">
+        <v>717100</v>
+      </c>
+      <c r="K76" s="3">
         <v>613100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>323100</v>
+        <v>885800</v>
       </c>
       <c r="E81" s="3">
-        <v>-739200</v>
+        <v>283100</v>
       </c>
       <c r="F81" s="3">
-        <v>119900</v>
+        <v>-647800</v>
       </c>
       <c r="G81" s="3">
-        <v>235700</v>
+        <v>105000</v>
       </c>
       <c r="H81" s="3">
-        <v>134200</v>
+        <v>206500</v>
       </c>
       <c r="I81" s="3">
-        <v>102200</v>
+        <v>117600</v>
       </c>
       <c r="J81" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K81" s="3">
         <v>101000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1422900</v>
+        <v>2049000</v>
       </c>
       <c r="E83" s="3">
-        <v>1190400</v>
+        <v>1246800</v>
       </c>
       <c r="F83" s="3">
-        <v>707100</v>
+        <v>1043100</v>
       </c>
       <c r="G83" s="3">
-        <v>534200</v>
+        <v>619600</v>
       </c>
       <c r="H83" s="3">
-        <v>299300</v>
+        <v>468100</v>
       </c>
       <c r="I83" s="3">
-        <v>216800</v>
+        <v>262300</v>
       </c>
       <c r="J83" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K83" s="3">
         <v>170100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1882700</v>
+        <v>2868800</v>
       </c>
       <c r="E89" s="3">
-        <v>1283700</v>
+        <v>1649700</v>
       </c>
       <c r="F89" s="3">
-        <v>1084000</v>
+        <v>1124900</v>
       </c>
       <c r="G89" s="3">
-        <v>1208300</v>
+        <v>949800</v>
       </c>
       <c r="H89" s="3">
-        <v>548800</v>
+        <v>1058800</v>
       </c>
       <c r="I89" s="3">
-        <v>452900</v>
+        <v>480900</v>
       </c>
       <c r="J89" s="3">
+        <v>396900</v>
+      </c>
+      <c r="K89" s="3">
         <v>332100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1560800</v>
+        <v>-2025400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1679700</v>
+        <v>-1367600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1669600</v>
+        <v>-1471800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1314600</v>
+        <v>-1463000</v>
       </c>
       <c r="H91" s="3">
-        <v>-723600</v>
+        <v>-1151900</v>
       </c>
       <c r="I91" s="3">
-        <v>-429400</v>
+        <v>-634000</v>
       </c>
       <c r="J91" s="3">
+        <v>-376300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-318200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1446200</v>
+        <v>-1886800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1732400</v>
+        <v>-1267300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1676800</v>
+        <v>-1518000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1398100</v>
+        <v>-1469300</v>
       </c>
       <c r="H94" s="3">
-        <v>-581200</v>
+        <v>-1225100</v>
       </c>
       <c r="I94" s="3">
-        <v>-429400</v>
+        <v>-509300</v>
       </c>
       <c r="J94" s="3">
+        <v>-376300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-318300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-18700</v>
+        <v>-27500</v>
       </c>
       <c r="E96" s="3">
-        <v>-23300</v>
+        <v>-16400</v>
       </c>
       <c r="F96" s="3">
-        <v>-13200</v>
+        <v>-20400</v>
       </c>
       <c r="G96" s="3">
-        <v>-12100</v>
+        <v>-11500</v>
       </c>
       <c r="H96" s="3">
-        <v>-8500</v>
+        <v>-10600</v>
       </c>
       <c r="I96" s="3">
-        <v>-7900</v>
+        <v>-7500</v>
       </c>
       <c r="J96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-145700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9300</v>
+        <v>-1001500</v>
       </c>
       <c r="E100" s="3">
-        <v>283200</v>
+        <v>-8100</v>
       </c>
       <c r="F100" s="3">
-        <v>619500</v>
+        <v>248100</v>
       </c>
       <c r="G100" s="3">
-        <v>130500</v>
+        <v>542900</v>
       </c>
       <c r="H100" s="3">
-        <v>182700</v>
+        <v>114400</v>
       </c>
       <c r="I100" s="3">
-        <v>69500</v>
+        <v>160100</v>
       </c>
       <c r="J100" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-48300</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43600</v>
+        <v>416100</v>
       </c>
       <c r="E101" s="3">
-        <v>44300</v>
+        <v>38200</v>
       </c>
       <c r="F101" s="3">
-        <v>120700</v>
+        <v>38800</v>
       </c>
       <c r="G101" s="3">
-        <v>34300</v>
+        <v>105700</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>30100</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="J101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>470700</v>
+        <v>396600</v>
       </c>
       <c r="E102" s="3">
-        <v>-121200</v>
+        <v>412500</v>
       </c>
       <c r="F102" s="3">
-        <v>147400</v>
+        <v>-106200</v>
       </c>
       <c r="G102" s="3">
-        <v>-25000</v>
+        <v>129100</v>
       </c>
       <c r="H102" s="3">
-        <v>156200</v>
+        <v>-21900</v>
       </c>
       <c r="I102" s="3">
-        <v>95200</v>
+        <v>136900</v>
       </c>
       <c r="J102" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-31800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/YPF_YR_FIN.xlsx
+++ b/Financials/Yearly/YPF_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41563B14-69AA-424D-A5C1-F90C146389B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="YPF" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9997700</v>
+        <v>7204100</v>
       </c>
       <c r="E8" s="3">
-        <v>5799500</v>
+        <v>4179000</v>
       </c>
       <c r="F8" s="3">
-        <v>4819700</v>
+        <v>3473000</v>
       </c>
       <c r="G8" s="3">
-        <v>3581800</v>
+        <v>2580900</v>
       </c>
       <c r="H8" s="3">
-        <v>3256100</v>
+        <v>2346300</v>
       </c>
       <c r="I8" s="3">
-        <v>2067200</v>
+        <v>1489600</v>
       </c>
       <c r="J8" s="3">
-        <v>1541000</v>
+        <v>1110400</v>
       </c>
       <c r="K8" s="3">
         <v>1471600</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8318000</v>
+        <v>5993800</v>
       </c>
       <c r="E9" s="3">
-        <v>4894000</v>
+        <v>3526500</v>
       </c>
       <c r="F9" s="3">
-        <v>4090900</v>
+        <v>2947800</v>
       </c>
       <c r="G9" s="3">
-        <v>2742200</v>
+        <v>1975900</v>
       </c>
       <c r="H9" s="3">
-        <v>2397000</v>
+        <v>1727300</v>
       </c>
       <c r="I9" s="3">
-        <v>1573000</v>
+        <v>1133500</v>
       </c>
       <c r="J9" s="3">
-        <v>1153100</v>
+        <v>830900</v>
       </c>
       <c r="K9" s="3">
         <v>1077100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1679700</v>
+        <v>1210300</v>
       </c>
       <c r="E10" s="3">
-        <v>905500</v>
+        <v>652500</v>
       </c>
       <c r="F10" s="3">
-        <v>728800</v>
+        <v>525100</v>
       </c>
       <c r="G10" s="3">
-        <v>839600</v>
+        <v>605000</v>
       </c>
       <c r="H10" s="3">
-        <v>859100</v>
+        <v>619000</v>
       </c>
       <c r="I10" s="3">
-        <v>494200</v>
+        <v>356100</v>
       </c>
       <c r="J10" s="3">
-        <v>387800</v>
+        <v>279500</v>
       </c>
       <c r="K10" s="3">
         <v>394500</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>97500</v>
+        <v>70300</v>
       </c>
       <c r="E12" s="3">
-        <v>43200</v>
+        <v>31100</v>
       </c>
       <c r="F12" s="3">
-        <v>61800</v>
+        <v>44500</v>
       </c>
       <c r="G12" s="3">
-        <v>49400</v>
+        <v>35600</v>
       </c>
       <c r="H12" s="3">
-        <v>36700</v>
+        <v>26500</v>
       </c>
       <c r="I12" s="3">
-        <v>15100</v>
+        <v>10900</v>
       </c>
       <c r="J12" s="3">
-        <v>13400</v>
+        <v>9600</v>
       </c>
       <c r="K12" s="3">
         <v>15000</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,21 +873,21 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-283300</v>
+        <v>-204100</v>
       </c>
       <c r="E14" s="3">
-        <v>-143900</v>
+        <v>-103700</v>
       </c>
       <c r="F14" s="3">
-        <v>772800</v>
+        <v>556900</v>
       </c>
       <c r="G14" s="3">
-        <v>85400</v>
+        <v>61500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -938,27 +903,27 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>94500</v>
+        <v>68100</v>
       </c>
       <c r="E15" s="3">
-        <v>47100</v>
+        <v>34000</v>
       </c>
       <c r="F15" s="3">
-        <v>43400</v>
+        <v>31300</v>
       </c>
       <c r="G15" s="3">
-        <v>25600</v>
+        <v>18500</v>
       </c>
       <c r="H15" s="3">
-        <v>24400</v>
+        <v>17600</v>
       </c>
       <c r="I15" s="3">
-        <v>13100</v>
+        <v>9500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8993400</v>
+        <v>6480400</v>
       </c>
       <c r="E17" s="3">
-        <v>5430800</v>
+        <v>3913300</v>
       </c>
       <c r="F17" s="3">
-        <v>5375900</v>
+        <v>3873700</v>
       </c>
       <c r="G17" s="3">
-        <v>3201200</v>
+        <v>2306700</v>
       </c>
       <c r="H17" s="3">
-        <v>2803300</v>
+        <v>2020000</v>
       </c>
       <c r="I17" s="3">
-        <v>1811200</v>
+        <v>1305100</v>
       </c>
       <c r="J17" s="3">
-        <v>1359700</v>
+        <v>979700</v>
       </c>
       <c r="K17" s="3">
         <v>1283400</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1004300</v>
+        <v>723700</v>
       </c>
       <c r="E18" s="3">
-        <v>368700</v>
+        <v>265700</v>
       </c>
       <c r="F18" s="3">
-        <v>-556200</v>
+        <v>-400800</v>
       </c>
       <c r="G18" s="3">
-        <v>380500</v>
+        <v>274200</v>
       </c>
       <c r="H18" s="3">
-        <v>452900</v>
+        <v>326300</v>
       </c>
       <c r="I18" s="3">
-        <v>256000</v>
+        <v>184500</v>
       </c>
       <c r="J18" s="3">
-        <v>181300</v>
+        <v>130600</v>
       </c>
       <c r="K18" s="3">
         <v>188200</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1722400</v>
+        <v>1241100</v>
       </c>
       <c r="E20" s="3">
-        <v>252700</v>
+        <v>182100</v>
       </c>
       <c r="F20" s="3">
-        <v>287900</v>
+        <v>207500</v>
       </c>
       <c r="G20" s="3">
-        <v>529500</v>
+        <v>381500</v>
       </c>
       <c r="H20" s="3">
-        <v>221700</v>
+        <v>159800</v>
       </c>
       <c r="I20" s="3">
-        <v>161100</v>
+        <v>116100</v>
       </c>
       <c r="J20" s="3">
-        <v>50900</v>
+        <v>36700</v>
       </c>
       <c r="K20" s="3">
         <v>37800</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4764000</v>
+        <v>3443900</v>
       </c>
       <c r="E21" s="3">
-        <v>1861100</v>
+        <v>1347800</v>
       </c>
       <c r="F21" s="3">
-        <v>768900</v>
+        <v>559600</v>
       </c>
       <c r="G21" s="3">
-        <v>1526000</v>
+        <v>1103000</v>
       </c>
       <c r="H21" s="3">
-        <v>1140100</v>
+        <v>824000</v>
       </c>
       <c r="I21" s="3">
-        <v>677900</v>
+        <v>489900</v>
       </c>
       <c r="J21" s="3">
-        <v>421100</v>
+        <v>304500</v>
       </c>
       <c r="K21" s="3">
         <v>400300</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>658800</v>
+        <v>474700</v>
       </c>
       <c r="E22" s="3">
-        <v>421800</v>
+        <v>303900</v>
       </c>
       <c r="F22" s="3">
-        <v>415400</v>
+        <v>299300</v>
       </c>
       <c r="G22" s="3">
-        <v>243300</v>
+        <v>175300</v>
       </c>
       <c r="H22" s="3">
-        <v>168300</v>
+        <v>121300</v>
       </c>
       <c r="I22" s="3">
-        <v>87900</v>
+        <v>63400</v>
       </c>
       <c r="J22" s="3">
-        <v>35700</v>
+        <v>25700</v>
       </c>
       <c r="K22" s="3">
         <v>27400</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2067900</v>
+        <v>1490100</v>
       </c>
       <c r="E23" s="3">
-        <v>199600</v>
+        <v>143900</v>
       </c>
       <c r="F23" s="3">
-        <v>-683700</v>
+        <v>-492700</v>
       </c>
       <c r="G23" s="3">
-        <v>666700</v>
+        <v>480400</v>
       </c>
       <c r="H23" s="3">
-        <v>506300</v>
+        <v>364900</v>
       </c>
       <c r="I23" s="3">
-        <v>329100</v>
+        <v>237200</v>
       </c>
       <c r="J23" s="3">
-        <v>196500</v>
+        <v>141600</v>
       </c>
       <c r="K23" s="3">
         <v>198600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1182300</v>
+        <v>851900</v>
       </c>
       <c r="E24" s="3">
-        <v>-91000</v>
+        <v>-65600</v>
       </c>
       <c r="F24" s="3">
-        <v>-32700</v>
+        <v>-23600</v>
       </c>
       <c r="G24" s="3">
-        <v>565200</v>
+        <v>407200</v>
       </c>
       <c r="H24" s="3">
-        <v>303300</v>
+        <v>218600</v>
       </c>
       <c r="I24" s="3">
-        <v>212600</v>
+        <v>153200</v>
       </c>
       <c r="J24" s="3">
-        <v>107000</v>
+        <v>77100</v>
       </c>
       <c r="K24" s="3">
         <v>82200</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>885600</v>
+        <v>638200</v>
       </c>
       <c r="E26" s="3">
-        <v>290700</v>
+        <v>209500</v>
       </c>
       <c r="F26" s="3">
-        <v>-651000</v>
+        <v>-469100</v>
       </c>
       <c r="G26" s="3">
-        <v>101500</v>
+        <v>73200</v>
       </c>
       <c r="H26" s="3">
-        <v>203000</v>
+        <v>146300</v>
       </c>
       <c r="I26" s="3">
-        <v>116500</v>
+        <v>84000</v>
       </c>
       <c r="J26" s="3">
-        <v>89500</v>
+        <v>64500</v>
       </c>
       <c r="K26" s="3">
         <v>116400</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>885800</v>
+        <v>638300</v>
       </c>
       <c r="E27" s="3">
-        <v>283100</v>
+        <v>204000</v>
       </c>
       <c r="F27" s="3">
-        <v>-647800</v>
+        <v>-466800</v>
       </c>
       <c r="G27" s="3">
-        <v>105000</v>
+        <v>75700</v>
       </c>
       <c r="H27" s="3">
-        <v>206500</v>
+        <v>148800</v>
       </c>
       <c r="I27" s="3">
-        <v>117600</v>
+        <v>84700</v>
       </c>
       <c r="J27" s="3">
-        <v>89500</v>
+        <v>64500</v>
       </c>
       <c r="K27" s="3">
         <v>101000</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1722400</v>
+        <v>-1241100</v>
       </c>
       <c r="E32" s="3">
-        <v>-252700</v>
+        <v>-182100</v>
       </c>
       <c r="F32" s="3">
-        <v>-287900</v>
+        <v>-207500</v>
       </c>
       <c r="G32" s="3">
-        <v>-529500</v>
+        <v>-381500</v>
       </c>
       <c r="H32" s="3">
-        <v>-221700</v>
+        <v>-159800</v>
       </c>
       <c r="I32" s="3">
-        <v>-161100</v>
+        <v>-116100</v>
       </c>
       <c r="J32" s="3">
-        <v>-50900</v>
+        <v>-36700</v>
       </c>
       <c r="K32" s="3">
         <v>-37800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>885800</v>
+        <v>638300</v>
       </c>
       <c r="E33" s="3">
-        <v>283100</v>
+        <v>204000</v>
       </c>
       <c r="F33" s="3">
-        <v>-647800</v>
+        <v>-466800</v>
       </c>
       <c r="G33" s="3">
-        <v>105000</v>
+        <v>75700</v>
       </c>
       <c r="H33" s="3">
-        <v>206500</v>
+        <v>148800</v>
       </c>
       <c r="I33" s="3">
-        <v>117600</v>
+        <v>84700</v>
       </c>
       <c r="J33" s="3">
-        <v>89500</v>
+        <v>64500</v>
       </c>
       <c r="K33" s="3">
         <v>101000</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>885800</v>
+        <v>638300</v>
       </c>
       <c r="E35" s="3">
-        <v>283100</v>
+        <v>204000</v>
       </c>
       <c r="F35" s="3">
-        <v>-647800</v>
+        <v>-466800</v>
       </c>
       <c r="G35" s="3">
-        <v>105000</v>
+        <v>75700</v>
       </c>
       <c r="H35" s="3">
-        <v>206500</v>
+        <v>148800</v>
       </c>
       <c r="I35" s="3">
-        <v>117600</v>
+        <v>84700</v>
       </c>
       <c r="J35" s="3">
-        <v>89500</v>
+        <v>64500</v>
       </c>
       <c r="K35" s="3">
         <v>101000</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,147 +1561,147 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>877100</v>
+        <v>632000</v>
       </c>
       <c r="E41" s="3">
-        <v>222200</v>
+        <v>160100</v>
       </c>
       <c r="F41" s="3">
-        <v>182400</v>
+        <v>131400</v>
       </c>
       <c r="G41" s="3">
-        <v>335200</v>
+        <v>241600</v>
       </c>
       <c r="H41" s="3">
-        <v>188600</v>
+        <v>135900</v>
       </c>
       <c r="I41" s="3">
-        <v>104000</v>
+        <v>74900</v>
       </c>
       <c r="J41" s="3">
-        <v>88800</v>
+        <v>64000</v>
       </c>
       <c r="K41" s="3">
         <v>23200</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>429700</v>
+        <v>309700</v>
       </c>
       <c r="E42" s="3">
-        <v>733800</v>
+        <v>528700</v>
       </c>
       <c r="F42" s="3">
-        <v>237600</v>
+        <v>171200</v>
       </c>
       <c r="G42" s="3">
-        <v>36200</v>
+        <v>26100</v>
       </c>
       <c r="H42" s="3">
-        <v>35200</v>
+        <v>25400</v>
       </c>
       <c r="I42" s="3">
-        <v>141800</v>
+        <v>102200</v>
       </c>
       <c r="J42" s="3">
-        <v>20100</v>
+        <v>14500</v>
       </c>
       <c r="K42" s="3">
         <v>5900</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2117500</v>
+        <v>1525800</v>
       </c>
       <c r="E43" s="3">
-        <v>1202000</v>
+        <v>866200</v>
       </c>
       <c r="F43" s="3">
-        <v>1064400</v>
+        <v>767000</v>
       </c>
       <c r="G43" s="3">
-        <v>936900</v>
+        <v>675100</v>
       </c>
       <c r="H43" s="3">
-        <v>433300</v>
+        <v>312300</v>
       </c>
       <c r="I43" s="3">
-        <v>308100</v>
+        <v>222000</v>
       </c>
       <c r="J43" s="3">
-        <v>153200</v>
+        <v>110400</v>
       </c>
       <c r="K43" s="3">
         <v>157300</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1232900</v>
+        <v>888400</v>
       </c>
       <c r="E44" s="3">
-        <v>626100</v>
+        <v>451100</v>
       </c>
       <c r="F44" s="3">
-        <v>500600</v>
+        <v>360700</v>
       </c>
       <c r="G44" s="3">
-        <v>441800</v>
+        <v>318300</v>
       </c>
       <c r="H44" s="3">
-        <v>298200</v>
+        <v>214900</v>
       </c>
       <c r="I44" s="3">
-        <v>226700</v>
+        <v>163300</v>
       </c>
       <c r="J44" s="3">
-        <v>158800</v>
+        <v>114400</v>
       </c>
       <c r="K44" s="3">
         <v>157200</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>123800</v>
+        <v>89200</v>
       </c>
       <c r="E45" s="3">
-        <v>21400</v>
+        <v>15400</v>
       </c>
       <c r="F45" s="3">
-        <v>16100</v>
+        <v>11600</v>
       </c>
       <c r="G45" s="3">
-        <v>15600</v>
+        <v>11300</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>7500</v>
       </c>
       <c r="I45" s="3">
-        <v>11200</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -1746,127 +1711,127 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4781000</v>
+        <v>3445100</v>
       </c>
       <c r="E46" s="3">
-        <v>2805500</v>
+        <v>2021600</v>
       </c>
       <c r="F46" s="3">
-        <v>2001000</v>
+        <v>1441800</v>
       </c>
       <c r="G46" s="3">
-        <v>1765800</v>
+        <v>1272400</v>
       </c>
       <c r="H46" s="3">
-        <v>965800</v>
+        <v>695900</v>
       </c>
       <c r="I46" s="3">
-        <v>791800</v>
+        <v>570500</v>
       </c>
       <c r="J46" s="3">
-        <v>420900</v>
+        <v>303300</v>
       </c>
       <c r="K46" s="3">
         <v>346100</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1504200</v>
+        <v>1083900</v>
       </c>
       <c r="E47" s="3">
-        <v>215800</v>
+        <v>155500</v>
       </c>
       <c r="F47" s="3">
-        <v>391000</v>
+        <v>281800</v>
       </c>
       <c r="G47" s="3">
-        <v>156600</v>
+        <v>112800</v>
       </c>
       <c r="H47" s="3">
-        <v>137900</v>
+        <v>99400</v>
       </c>
       <c r="I47" s="3">
-        <v>117100</v>
+        <v>84400</v>
       </c>
       <c r="J47" s="3">
-        <v>70900</v>
+        <v>51100</v>
       </c>
       <c r="K47" s="3">
         <v>76400</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16037100</v>
+        <v>11555900</v>
       </c>
       <c r="E48" s="3">
-        <v>8130900</v>
+        <v>5858900</v>
       </c>
       <c r="F48" s="3">
-        <v>7065800</v>
+        <v>5091500</v>
       </c>
       <c r="G48" s="3">
-        <v>6214600</v>
+        <v>4478100</v>
       </c>
       <c r="H48" s="3">
-        <v>3600000</v>
+        <v>2594100</v>
       </c>
       <c r="I48" s="3">
-        <v>2144800</v>
+        <v>1545500</v>
       </c>
       <c r="J48" s="3">
-        <v>1306900</v>
+        <v>941700</v>
       </c>
       <c r="K48" s="3">
         <v>1139400</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>468000</v>
+        <v>337200</v>
       </c>
       <c r="E49" s="3">
-        <v>228800</v>
+        <v>164900</v>
       </c>
       <c r="F49" s="3">
-        <v>186100</v>
+        <v>134100</v>
       </c>
       <c r="G49" s="3">
-        <v>167000</v>
+        <v>120300</v>
       </c>
       <c r="H49" s="3">
-        <v>100800</v>
+        <v>72600</v>
       </c>
       <c r="I49" s="3">
-        <v>56100</v>
+        <v>40400</v>
       </c>
       <c r="J49" s="3">
-        <v>34200</v>
+        <v>24700</v>
       </c>
       <c r="K49" s="3">
         <v>34000</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12400</v>
+        <v>9000</v>
       </c>
       <c r="E52" s="3">
-        <v>220000</v>
+        <v>158600</v>
       </c>
       <c r="F52" s="3">
-        <v>17000</v>
+        <v>12200</v>
       </c>
       <c r="G52" s="3">
-        <v>33700</v>
+        <v>24300</v>
       </c>
       <c r="H52" s="3">
-        <v>18600</v>
+        <v>13400</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>26700</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22802700</v>
+        <v>16431100</v>
       </c>
       <c r="E54" s="3">
-        <v>11601200</v>
+        <v>8359500</v>
       </c>
       <c r="F54" s="3">
-        <v>9660900</v>
+        <v>6961400</v>
       </c>
       <c r="G54" s="3">
-        <v>8337600</v>
+        <v>6007900</v>
       </c>
       <c r="H54" s="3">
-        <v>4784200</v>
+        <v>3447400</v>
       </c>
       <c r="I54" s="3">
-        <v>3110500</v>
+        <v>2241400</v>
       </c>
       <c r="J54" s="3">
-        <v>1834000</v>
+        <v>1321600</v>
       </c>
       <c r="K54" s="3">
         <v>1596700</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1868500</v>
+        <v>1346400</v>
       </c>
       <c r="E57" s="3">
-        <v>1024400</v>
+        <v>738100</v>
       </c>
       <c r="F57" s="3">
-        <v>932900</v>
+        <v>672200</v>
       </c>
       <c r="G57" s="3">
-        <v>887900</v>
+        <v>639800</v>
       </c>
       <c r="H57" s="3">
-        <v>654300</v>
+        <v>471500</v>
       </c>
       <c r="I57" s="3">
-        <v>466000</v>
+        <v>335800</v>
       </c>
       <c r="J57" s="3">
-        <v>294900</v>
+        <v>212500</v>
       </c>
       <c r="K57" s="3">
         <v>293100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1487100</v>
+        <v>1071600</v>
       </c>
       <c r="E58" s="3">
-        <v>902400</v>
+        <v>650200</v>
       </c>
       <c r="F58" s="3">
-        <v>614300</v>
+        <v>442600</v>
       </c>
       <c r="G58" s="3">
-        <v>638100</v>
+        <v>459800</v>
       </c>
       <c r="H58" s="3">
-        <v>304500</v>
+        <v>219400</v>
       </c>
       <c r="I58" s="3">
-        <v>202200</v>
+        <v>145700</v>
       </c>
       <c r="J58" s="3">
-        <v>114800</v>
+        <v>82700</v>
       </c>
       <c r="K58" s="3">
         <v>203200</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>750000</v>
+        <v>540400</v>
       </c>
       <c r="E59" s="3">
-        <v>430000</v>
+        <v>309800</v>
       </c>
       <c r="F59" s="3">
-        <v>344600</v>
+        <v>248300</v>
       </c>
       <c r="G59" s="3">
-        <v>304400</v>
+        <v>219400</v>
       </c>
       <c r="H59" s="3">
-        <v>292700</v>
+        <v>210900</v>
       </c>
       <c r="I59" s="3">
-        <v>84500</v>
+        <v>60900</v>
       </c>
       <c r="J59" s="3">
-        <v>70400</v>
+        <v>50700</v>
       </c>
       <c r="K59" s="3">
         <v>63100</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4105500</v>
+        <v>2958400</v>
       </c>
       <c r="E60" s="3">
-        <v>2356700</v>
+        <v>1698200</v>
       </c>
       <c r="F60" s="3">
-        <v>1891800</v>
+        <v>1363200</v>
       </c>
       <c r="G60" s="3">
-        <v>1830400</v>
+        <v>1318900</v>
       </c>
       <c r="H60" s="3">
-        <v>1224200</v>
+        <v>882100</v>
       </c>
       <c r="I60" s="3">
-        <v>752600</v>
+        <v>542300</v>
       </c>
       <c r="J60" s="3">
-        <v>480100</v>
+        <v>346000</v>
       </c>
       <c r="K60" s="3">
         <v>549000</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6199600</v>
+        <v>4467300</v>
       </c>
       <c r="E61" s="3">
-        <v>3480600</v>
+        <v>2508000</v>
       </c>
       <c r="F61" s="3">
-        <v>2926400</v>
+        <v>2108700</v>
       </c>
       <c r="G61" s="3">
-        <v>1787800</v>
+        <v>1288200</v>
       </c>
       <c r="H61" s="3">
-        <v>826500</v>
+        <v>595600</v>
       </c>
       <c r="I61" s="3">
-        <v>529400</v>
+        <v>381400</v>
       </c>
       <c r="J61" s="3">
-        <v>277600</v>
+        <v>200000</v>
       </c>
       <c r="K61" s="3">
         <v>116100</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4185100</v>
+        <v>3015700</v>
       </c>
       <c r="E62" s="3">
-        <v>2168500</v>
+        <v>1562600</v>
       </c>
       <c r="F62" s="3">
-        <v>2120700</v>
+        <v>1528100</v>
       </c>
       <c r="G62" s="3">
-        <v>1956000</v>
+        <v>1409500</v>
       </c>
       <c r="H62" s="3">
-        <v>1673300</v>
+        <v>1205700</v>
       </c>
       <c r="I62" s="3">
-        <v>721900</v>
+        <v>520200</v>
       </c>
       <c r="J62" s="3">
-        <v>359200</v>
+        <v>258800</v>
       </c>
       <c r="K62" s="3">
         <v>384500</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14562700</v>
+        <v>10493500</v>
       </c>
       <c r="E66" s="3">
-        <v>8107500</v>
+        <v>5842100</v>
       </c>
       <c r="F66" s="3">
-        <v>6936700</v>
+        <v>4998400</v>
       </c>
       <c r="G66" s="3">
-        <v>5575300</v>
+        <v>4017500</v>
       </c>
       <c r="H66" s="3">
-        <v>3118100</v>
+        <v>2246800</v>
       </c>
       <c r="I66" s="3">
-        <v>2009100</v>
+        <v>1447700</v>
       </c>
       <c r="J66" s="3">
-        <v>1116900</v>
+        <v>804800</v>
       </c>
       <c r="K66" s="3">
         <v>983600</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>930000</v>
+        <v>670200</v>
       </c>
       <c r="E72" s="3">
-        <v>331400</v>
+        <v>238800</v>
       </c>
       <c r="F72" s="3">
-        <v>-506500</v>
+        <v>-365000</v>
       </c>
       <c r="G72" s="3">
-        <v>245100</v>
+        <v>176600</v>
       </c>
       <c r="H72" s="3">
-        <v>344400</v>
+        <v>248200</v>
       </c>
       <c r="I72" s="3">
-        <v>247500</v>
+        <v>178400</v>
       </c>
       <c r="J72" s="3">
-        <v>200700</v>
+        <v>144600</v>
       </c>
       <c r="K72" s="3">
         <v>284900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8240000</v>
+        <v>5937600</v>
       </c>
       <c r="E76" s="3">
-        <v>3493600</v>
+        <v>2517400</v>
       </c>
       <c r="F76" s="3">
-        <v>2724200</v>
+        <v>1963000</v>
       </c>
       <c r="G76" s="3">
-        <v>2762300</v>
+        <v>1990400</v>
       </c>
       <c r="H76" s="3">
-        <v>1666100</v>
+        <v>1200600</v>
       </c>
       <c r="I76" s="3">
-        <v>1101500</v>
+        <v>793700</v>
       </c>
       <c r="J76" s="3">
-        <v>717100</v>
+        <v>516700</v>
       </c>
       <c r="K76" s="3">
         <v>613100</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>885800</v>
+        <v>638300</v>
       </c>
       <c r="E81" s="3">
-        <v>283100</v>
+        <v>204000</v>
       </c>
       <c r="F81" s="3">
-        <v>-647800</v>
+        <v>-466800</v>
       </c>
       <c r="G81" s="3">
-        <v>105000</v>
+        <v>75700</v>
       </c>
       <c r="H81" s="3">
-        <v>206500</v>
+        <v>148800</v>
       </c>
       <c r="I81" s="3">
-        <v>117600</v>
+        <v>84700</v>
       </c>
       <c r="J81" s="3">
-        <v>89500</v>
+        <v>64500</v>
       </c>
       <c r="K81" s="3">
         <v>101000</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2049000</v>
+        <v>1476400</v>
       </c>
       <c r="E83" s="3">
-        <v>1246800</v>
+        <v>898400</v>
       </c>
       <c r="F83" s="3">
-        <v>1043100</v>
+        <v>751600</v>
       </c>
       <c r="G83" s="3">
-        <v>619600</v>
+        <v>446400</v>
       </c>
       <c r="H83" s="3">
-        <v>468100</v>
+        <v>337300</v>
       </c>
       <c r="I83" s="3">
-        <v>262300</v>
+        <v>189000</v>
       </c>
       <c r="J83" s="3">
-        <v>190000</v>
+        <v>136900</v>
       </c>
       <c r="K83" s="3">
         <v>170100</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2868800</v>
+        <v>2067200</v>
       </c>
       <c r="E89" s="3">
-        <v>1649700</v>
+        <v>1188700</v>
       </c>
       <c r="F89" s="3">
-        <v>1124900</v>
+        <v>810500</v>
       </c>
       <c r="G89" s="3">
-        <v>949800</v>
+        <v>684400</v>
       </c>
       <c r="H89" s="3">
-        <v>1058800</v>
+        <v>762900</v>
       </c>
       <c r="I89" s="3">
-        <v>480900</v>
+        <v>346500</v>
       </c>
       <c r="J89" s="3">
-        <v>396900</v>
+        <v>286000</v>
       </c>
       <c r="K89" s="3">
         <v>332100</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2025400</v>
+        <v>-1459500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1367600</v>
+        <v>-985500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1471800</v>
+        <v>-1060600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1463000</v>
+        <v>-1054200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1151900</v>
+        <v>-830000</v>
       </c>
       <c r="I91" s="3">
-        <v>-634000</v>
+        <v>-456900</v>
       </c>
       <c r="J91" s="3">
-        <v>-376300</v>
+        <v>-271100</v>
       </c>
       <c r="K91" s="3">
         <v>-318200</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1886800</v>
+        <v>-1359600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1267300</v>
+        <v>-913200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1518000</v>
+        <v>-1093900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1469300</v>
+        <v>-1058700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1225100</v>
+        <v>-882800</v>
       </c>
       <c r="I94" s="3">
-        <v>-509300</v>
+        <v>-367000</v>
       </c>
       <c r="J94" s="3">
-        <v>-376300</v>
+        <v>-271100</v>
       </c>
       <c r="K94" s="3">
         <v>-318300</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27500</v>
+        <v>-19800</v>
       </c>
       <c r="E96" s="3">
-        <v>-16400</v>
+        <v>-11800</v>
       </c>
       <c r="F96" s="3">
-        <v>-20400</v>
+        <v>-14700</v>
       </c>
       <c r="G96" s="3">
-        <v>-11500</v>
+        <v>-8300</v>
       </c>
       <c r="H96" s="3">
-        <v>-10600</v>
+        <v>-7700</v>
       </c>
       <c r="I96" s="3">
-        <v>-7500</v>
+        <v>-5400</v>
       </c>
       <c r="J96" s="3">
-        <v>-7000</v>
+        <v>-5000</v>
       </c>
       <c r="K96" s="3">
         <v>-145700</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1001500</v>
+        <v>-721600</v>
       </c>
       <c r="E100" s="3">
-        <v>-8100</v>
+        <v>-5900</v>
       </c>
       <c r="F100" s="3">
-        <v>248100</v>
+        <v>178800</v>
       </c>
       <c r="G100" s="3">
-        <v>542900</v>
+        <v>391200</v>
       </c>
       <c r="H100" s="3">
-        <v>114400</v>
+        <v>82400</v>
       </c>
       <c r="I100" s="3">
-        <v>160100</v>
+        <v>115400</v>
       </c>
       <c r="J100" s="3">
-        <v>60900</v>
+        <v>43900</v>
       </c>
       <c r="K100" s="3">
         <v>-48300</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>416100</v>
+        <v>299800</v>
       </c>
       <c r="E101" s="3">
-        <v>38200</v>
+        <v>27500</v>
       </c>
       <c r="F101" s="3">
-        <v>38800</v>
+        <v>28000</v>
       </c>
       <c r="G101" s="3">
-        <v>105700</v>
+        <v>76200</v>
       </c>
       <c r="H101" s="3">
-        <v>30100</v>
+        <v>21700</v>
       </c>
       <c r="I101" s="3">
-        <v>5100</v>
+        <v>3700</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="K101" s="3">
         <v>2700</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>396600</v>
+        <v>285800</v>
       </c>
       <c r="E102" s="3">
-        <v>412500</v>
+        <v>297200</v>
       </c>
       <c r="F102" s="3">
-        <v>-106200</v>
+        <v>-76500</v>
       </c>
       <c r="G102" s="3">
-        <v>129100</v>
+        <v>93000</v>
       </c>
       <c r="H102" s="3">
-        <v>-21900</v>
+        <v>-15800</v>
       </c>
       <c r="I102" s="3">
-        <v>136900</v>
+        <v>98600</v>
       </c>
       <c r="J102" s="3">
-        <v>83400</v>
+        <v>60100</v>
       </c>
       <c r="K102" s="3">
         <v>-31800</v>
